--- a/biology/Médecine/Michael_Friedländer_(médecin)/Michael_Friedländer_(médecin).xlsx
+++ b/biology/Médecine/Michael_Friedländer_(médecin)/Michael_Friedländer_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michael_Friedl%C3%A4nder_(m%C3%A9decin)</t>
+          <t>Michael_Friedländer_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Friedländer, né à Königsberg en 1768 et mort à Paris le 20 avril 1824[1], est un médecin allemand. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Friedländer, né à Königsberg en 1768 et mort à Paris le 20 avril 1824, est un médecin allemand. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michael_Friedl%C3%A4nder_(m%C3%A9decin)</t>
+          <t>Michael_Friedländer_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille israélite, il étudie à Königsberg, Berlin, Gottingen et Halle et fonde le premier journal en hébreu, Le Glaneur. Il devient un des principaux propagateurs de la vaccine à Berlin. 
 Il collabore avec Christoph Heinrich Pfaff et écrit dans les Annales françaises d'histoire naturelle, de physique et de chimie, dans le Journal de médecine de Christoph Wilhelm Hufeland et au Journal de l'éducation de François Guizot. 
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michael_Friedl%C3%A4nder_(m%C3%A9decin)</t>
+          <t>Michael_Friedländer_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dissertatio inauguralis medica de calore corporis humani aucto ejusque medela, Halle : Grunert, 1791.
 Entwurf einer Geschichte der Armen und Armenanstalten, Leipzig, 1804.
